--- a/raw_data/20200818_saline/20200818_Sensor0_Test_31.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_31.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AD1AC2-C0DA-4528-82A0-76D8C592D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>27002.867832</v>
       </c>
       <c r="B2" s="1">
-        <v>7.500797</v>
+        <v>7.5007970000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>904.319000</v>
+        <v>904.31899999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.056000</v>
+        <v>-197.05600000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>27013.252111</v>
+        <v>27013.252111000002</v>
       </c>
       <c r="G2" s="1">
-        <v>7.503681</v>
+        <v>7.5036810000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>921.624000</v>
+        <v>921.62400000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.594000</v>
+        <v>-167.59399999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>27023.718685</v>
@@ -511,1176 +927,1176 @@
         <v>7.506589</v>
       </c>
       <c r="M2" s="1">
-        <v>943.824000</v>
+        <v>943.82399999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.581000</v>
+        <v>-119.581</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>27034.530943</v>
+        <v>27034.530943000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.509592</v>
+        <v>7.5095919999999996</v>
       </c>
       <c r="R2" s="1">
-        <v>950.463000</v>
+        <v>950.46299999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.203000</v>
+        <v>-104.203</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>27044.867568</v>
+        <v>27044.867568000001</v>
       </c>
       <c r="V2" s="1">
-        <v>7.512463</v>
+        <v>7.5124630000000003</v>
       </c>
       <c r="W2" s="1">
-        <v>956.828000</v>
+        <v>956.82799999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.272800</v>
+        <v>-90.272800000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>27055.034594</v>
+        <v>27055.034594000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.515287</v>
+        <v>7.5152869999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.067000</v>
+        <v>964.06700000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.499600</v>
+        <v>-80.499600000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>27065.233830</v>
+        <v>27065.233830000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.518121</v>
+        <v>7.5181209999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.984000</v>
+        <v>968.98400000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.947400</v>
+        <v>-79.947400000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>27075.346231</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.520930</v>
+        <v>7.5209299999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.797000</v>
+        <v>976.79700000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.528900</v>
+        <v>-87.528899999999993</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>27085.583658</v>
       </c>
       <c r="AP2" s="1">
-        <v>7.523773</v>
+        <v>7.5237730000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>985.796000</v>
+        <v>985.79600000000005</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.357000</v>
+        <v>-102.357</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>27096.513996</v>
+        <v>27096.513996000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.526809</v>
+        <v>7.5268090000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>997.014000</v>
+        <v>997.01400000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.857000</v>
+        <v>-123.857</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>27107.241469</v>
+        <v>27107.241469000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.529789</v>
+        <v>7.5297890000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.520000</v>
+        <v>1006.52</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.571000</v>
+        <v>-142.571</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>27118.210528</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.532836</v>
+        <v>7.5328359999999996</v>
       </c>
       <c r="BF2" s="1">
-        <v>1051.400000</v>
+        <v>1051.4000000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.762000</v>
+        <v>-227.762</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>27128.836288</v>
+        <v>27128.836287999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.535788</v>
+        <v>7.5357880000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1130.790000</v>
+        <v>1130.79</v>
       </c>
       <c r="BL2" s="1">
-        <v>-364.602000</v>
+        <v>-364.60199999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>27139.935267</v>
+        <v>27139.935267000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.538871</v>
+        <v>7.5388710000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1262.890000</v>
+        <v>1262.8900000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.667000</v>
+        <v>-575.66700000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>27150.279829</v>
+        <v>27150.279828999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.541744</v>
+        <v>7.5417439999999996</v>
       </c>
       <c r="BU2" s="1">
-        <v>1411.560000</v>
+        <v>1411.56</v>
       </c>
       <c r="BV2" s="1">
-        <v>-800.833000</v>
+        <v>-800.83299999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>27161.606470</v>
+        <v>27161.606469999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.544891</v>
+        <v>7.5448909999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1573.760000</v>
+        <v>1573.76</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1035.140000</v>
+        <v>-1035.1400000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>27172.763020</v>
+        <v>27172.763019999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.547990</v>
+        <v>7.5479900000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>1982.920000</v>
+        <v>1982.92</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1583.190000</v>
+        <v>-1583.19</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>27003.234870</v>
+        <v>27003.23487</v>
       </c>
       <c r="B3" s="1">
-        <v>7.500899</v>
+        <v>7.5008990000000004</v>
       </c>
       <c r="C3" s="1">
-        <v>904.369000</v>
+        <v>904.36900000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.923000</v>
+        <v>-196.923</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>27013.911288</v>
+        <v>27013.911287999999</v>
       </c>
       <c r="G3" s="1">
-        <v>7.503864</v>
+        <v>7.5038640000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>921.515000</v>
+        <v>921.51499999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.742000</v>
+        <v>-166.74199999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>27024.410606</v>
+        <v>27024.410606000001</v>
       </c>
       <c r="L3" s="1">
-        <v>7.506781</v>
+        <v>7.5067810000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>944.002000</v>
+        <v>944.00199999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.613000</v>
+        <v>-119.613</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>27034.944108</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.509707</v>
+        <v>7.5097069999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>950.422000</v>
+        <v>950.42200000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.241000</v>
+        <v>-104.241</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>27045.217743</v>
+        <v>27045.217743000001</v>
       </c>
       <c r="V3" s="1">
-        <v>7.512560</v>
+        <v>7.5125599999999997</v>
       </c>
       <c r="W3" s="1">
-        <v>956.854000</v>
+        <v>956.85400000000004</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.314800</v>
+        <v>-90.314800000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>27055.382787</v>
+        <v>27055.382786999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.515384</v>
+        <v>7.5153840000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.099000</v>
+        <v>964.09900000000005</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.589400</v>
+        <v>-80.589399999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>27065.615252</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.518226</v>
+        <v>7.5182260000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>968.979000</v>
+        <v>968.97900000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.942500</v>
+        <v>-79.942499999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>27075.726664</v>
+        <v>27075.726664000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.521035</v>
+        <v>7.5210350000000004</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.759000</v>
+        <v>976.75900000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.539700</v>
+        <v>-87.539699999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>27086.003275</v>
+        <v>27086.003274999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.523890</v>
+        <v>7.5238899999999997</v>
       </c>
       <c r="AQ3" s="1">
-        <v>985.824000</v>
+        <v>985.82399999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.362000</v>
+        <v>-102.36199999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>27096.624107</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.526840</v>
+        <v>7.52684</v>
       </c>
       <c r="AV3" s="1">
-        <v>997.018000</v>
+        <v>997.01800000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.852000</v>
+        <v>-123.852</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>27107.666045</v>
+        <v>27107.666045000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.529907</v>
+        <v>7.5299069999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.530000</v>
+        <v>1006.53</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.612000</v>
+        <v>-142.61199999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>27118.576542</v>
+        <v>27118.576541999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>7.532938</v>
+        <v>7.5329379999999997</v>
       </c>
       <c r="BF3" s="1">
-        <v>1051.380000</v>
+        <v>1051.3800000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.723000</v>
+        <v>-227.72300000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>27129.249170</v>
+        <v>27129.249169999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.535903</v>
+        <v>7.5359030000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1130.800000</v>
+        <v>1130.8</v>
       </c>
       <c r="BL3" s="1">
-        <v>-364.597000</v>
+        <v>-364.59699999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>27140.357362</v>
+        <v>27140.357361999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.538988</v>
+        <v>7.5389879999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1262.890000</v>
+        <v>1262.8900000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.665000</v>
+        <v>-575.66499999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>27150.732180</v>
+        <v>27150.732179999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.541870</v>
+        <v>7.5418700000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>1411.560000</v>
+        <v>1411.56</v>
       </c>
       <c r="BV3" s="1">
-        <v>-800.954000</v>
+        <v>-800.95399999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>27162.058325</v>
+        <v>27162.058325000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.545016</v>
+        <v>7.5450160000000004</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1573.920000</v>
+        <v>1573.92</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1035.270000</v>
+        <v>-1035.27</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>27173.358219</v>
+        <v>27173.358219000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.548155</v>
+        <v>7.5481550000000004</v>
       </c>
       <c r="CE3" s="1">
-        <v>1985.140000</v>
+        <v>1985.14</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1582.760000</v>
+        <v>-1582.76</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>27003.881686</v>
+        <v>27003.881686000001</v>
       </c>
       <c r="B4" s="1">
-        <v>7.501078</v>
+        <v>7.5010779999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>904.558000</v>
+        <v>904.55799999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.048000</v>
+        <v>-197.048</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>27014.284248</v>
       </c>
       <c r="G4" s="1">
-        <v>7.503968</v>
+        <v>7.5039680000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>921.453000</v>
+        <v>921.45299999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.188000</v>
+        <v>-167.18799999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>27024.789051</v>
       </c>
       <c r="L4" s="1">
-        <v>7.506886</v>
+        <v>7.5068859999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>943.780000</v>
+        <v>943.78</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.713000</v>
+        <v>-119.71299999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>27035.293293</v>
+        <v>27035.293292999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.509804</v>
+        <v>7.5098039999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>950.414000</v>
+        <v>950.41399999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.198000</v>
+        <v>-104.19799999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>27045.560976</v>
+        <v>27045.560976000001</v>
       </c>
       <c r="V4" s="1">
-        <v>7.512656</v>
+        <v>7.5126559999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>956.910000</v>
+        <v>956.91</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.273900</v>
+        <v>-90.273899999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>27055.734458</v>
+        <v>27055.734457999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.515482</v>
+        <v>7.5154820000000004</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.136000</v>
+        <v>964.13599999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.614800</v>
+        <v>-80.614800000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>27066.036827</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.518344</v>
+        <v>7.5183439999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>968.974000</v>
+        <v>968.97400000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.903600</v>
+        <v>-79.903599999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>27076.199846</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.521167</v>
+        <v>7.5211670000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.767000</v>
+        <v>976.76700000000005</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.508100</v>
+        <v>-87.508099999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>27086.343033</v>
+        <v>27086.343033000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.523984</v>
+        <v>7.5239839999999996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>985.814000</v>
+        <v>985.81399999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.346000</v>
+        <v>-102.346</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>27096.968828</v>
+        <v>27096.968828000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.526936</v>
+        <v>7.5269360000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>997.022000</v>
+        <v>997.02200000000005</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.843000</v>
+        <v>-123.843</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>27108.029117</v>
+        <v>27108.029116999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.530008</v>
+        <v>7.5300079999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.591000</v>
+        <v>-142.59100000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>27118.935646</v>
+        <v>27118.935646000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.533038</v>
+        <v>7.5330380000000003</v>
       </c>
       <c r="BF4" s="1">
-        <v>1051.390000</v>
+        <v>1051.3900000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.765000</v>
+        <v>-227.76499999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>27130.001887</v>
+        <v>27130.001886999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.536112</v>
+        <v>7.5361120000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1130.800000</v>
+        <v>1130.8</v>
       </c>
       <c r="BL4" s="1">
-        <v>-364.579000</v>
+        <v>-364.57900000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>27140.784417</v>
+        <v>27140.784416999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.539107</v>
+        <v>7.5391069999999996</v>
       </c>
       <c r="BP4" s="1">
-        <v>1262.900000</v>
+        <v>1262.9000000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.698000</v>
+        <v>-575.69799999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>27151.156259</v>
+        <v>27151.156258999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.541988</v>
+        <v>7.5419879999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1411.390000</v>
+        <v>1411.39</v>
       </c>
       <c r="BV4" s="1">
-        <v>-801.104000</v>
+        <v>-801.10400000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>27162.481413</v>
+        <v>27162.481413000001</v>
       </c>
       <c r="BY4" s="1">
         <v>7.545134</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1573.850000</v>
+        <v>1573.85</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1035.160000</v>
+        <v>-1035.1600000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>27173.898327</v>
+        <v>27173.898326999999</v>
       </c>
       <c r="CD4" s="1">
         <v>7.548305</v>
       </c>
       <c r="CE4" s="1">
-        <v>1983.510000</v>
+        <v>1983.51</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1581.790000</v>
+        <v>-1581.79</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>27004.257621</v>
+        <v>27004.257621000001</v>
       </c>
       <c r="B5" s="1">
-        <v>7.501183</v>
+        <v>7.5011830000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>904.307000</v>
+        <v>904.30700000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.929000</v>
+        <v>-196.929</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>27014.630953</v>
       </c>
       <c r="G5" s="1">
-        <v>7.504064</v>
+        <v>7.5040639999999996</v>
       </c>
       <c r="H5" s="1">
-        <v>921.452000</v>
+        <v>921.452</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.025000</v>
+        <v>-167.02500000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>27025.137706</v>
+        <v>27025.137706000001</v>
       </c>
       <c r="L5" s="1">
         <v>7.506983</v>
       </c>
       <c r="M5" s="1">
-        <v>943.765000</v>
+        <v>943.76499999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.734000</v>
+        <v>-119.73399999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>27035.642972</v>
+        <v>27035.642972000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.509901</v>
+        <v>7.5099010000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>950.430000</v>
+        <v>950.43</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.156000</v>
+        <v>-104.15600000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>27045.985550</v>
+        <v>27045.985550000001</v>
       </c>
       <c r="V5" s="1">
-        <v>7.512774</v>
+        <v>7.5127740000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>956.884000</v>
+        <v>956.88400000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.245000</v>
+        <v>-90.245000000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>27056.152582</v>
+        <v>27056.152581999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.515598</v>
+        <v>7.5155979999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.011000</v>
+        <v>964.01099999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.418000</v>
+        <v>-80.418000000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>27066.301685</v>
+        <v>27066.301684999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.518417</v>
+        <v>7.5184170000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>968.942000</v>
+        <v>968.94200000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.908400</v>
+        <v>-79.9084</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>27076.450822</v>
+        <v>27076.450821999999</v>
       </c>
       <c r="AK5" s="1">
         <v>7.521236</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.768000</v>
+        <v>976.76800000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.514800</v>
+        <v>-87.514799999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>27086.704122</v>
+        <v>27086.704121999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.524084</v>
+        <v>7.5240840000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.824000</v>
+        <v>985.82399999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.368000</v>
+        <v>-102.36799999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>27097.330908</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.527036</v>
+        <v>7.5270359999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>997.008000</v>
+        <v>997.00800000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.845000</v>
+        <v>-123.845</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>27108.387229</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.530108</v>
+        <v>7.5301080000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.510000</v>
+        <v>1006.51</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.595000</v>
+        <v>-142.595</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>27119.659309</v>
+        <v>27119.659308999999</v>
       </c>
       <c r="BE5" s="1">
         <v>7.533239</v>
       </c>
       <c r="BF5" s="1">
-        <v>1051.390000</v>
+        <v>1051.3900000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.769000</v>
+        <v>-227.76900000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>27130.398688</v>
+        <v>27130.398688000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.536222</v>
+        <v>7.5362220000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1130.810000</v>
+        <v>1130.81</v>
       </c>
       <c r="BL5" s="1">
-        <v>-364.610000</v>
+        <v>-364.61</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>27141.176257</v>
+        <v>27141.176256999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.539216</v>
+        <v>7.5392159999999997</v>
       </c>
       <c r="BP5" s="1">
-        <v>1262.880000</v>
+        <v>1262.8800000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.673000</v>
+        <v>-575.673</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>27151.568964</v>
+        <v>27151.568963999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.542102</v>
+        <v>7.5421019999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1411.250000</v>
+        <v>1411.25</v>
       </c>
       <c r="BV5" s="1">
-        <v>-801.153000</v>
+        <v>-801.15300000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>27163.212802</v>
+        <v>27163.212801999998</v>
       </c>
       <c r="BY5" s="1">
         <v>7.545337</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1573.810000</v>
+        <v>1573.81</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1035.290000</v>
+        <v>-1035.29</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>27174.834774</v>
+        <v>27174.834773999999</v>
       </c>
       <c r="CD5" s="1">
         <v>7.548565</v>
       </c>
       <c r="CE5" s="1">
-        <v>1984.950000</v>
+        <v>1984.95</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1582.560000</v>
+        <v>-1582.56</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>27004.600357</v>
+        <v>27004.600356999999</v>
       </c>
       <c r="B6" s="1">
-        <v>7.501278</v>
+        <v>7.5012780000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>904.483000</v>
+        <v>904.48299999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.863000</v>
+        <v>-196.863</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>27014.977160</v>
+        <v>27014.977159999999</v>
       </c>
       <c r="G6" s="1">
-        <v>7.504160</v>
+        <v>7.5041599999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>921.600000</v>
+        <v>921.6</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.840000</v>
+        <v>-166.84</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>27025.481930</v>
+        <v>27025.481930000002</v>
       </c>
       <c r="L6" s="1">
-        <v>7.507078</v>
+        <v>7.5070779999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>943.932000</v>
+        <v>943.93200000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.604000</v>
+        <v>-119.604</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>27036.066092</v>
+        <v>27036.066092000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.510018</v>
+        <v>7.5100179999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>950.437000</v>
+        <v>950.43700000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.231000</v>
+        <v>-104.23099999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>27046.258385</v>
+        <v>27046.258385000001</v>
       </c>
       <c r="V6" s="1">
-        <v>7.512850</v>
+        <v>7.5128500000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>956.927000</v>
+        <v>956.92700000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.296800</v>
+        <v>-90.296800000000005</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>27056.440257</v>
+        <v>27056.440256999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.515678</v>
+        <v>7.5156780000000003</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.112000</v>
+        <v>964.11199999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.481200</v>
+        <v>-80.481200000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>27066.644916</v>
+        <v>27066.644916000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.518512</v>
+        <v>7.5185120000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>968.938000</v>
+        <v>968.93799999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.942700</v>
+        <v>-79.942700000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>27076.795045</v>
+        <v>27076.795044999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.521332</v>
+        <v>7.5213320000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.776000</v>
+        <v>976.77599999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.524900</v>
+        <v>-87.524900000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>27087.063720</v>
+        <v>27087.063719999998</v>
       </c>
       <c r="AP6" s="1">
         <v>7.524184</v>
       </c>
       <c r="AQ6" s="1">
-        <v>985.806000</v>
+        <v>985.80600000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.341000</v>
+        <v>-102.34099999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>27098.069977</v>
+        <v>27098.069976999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.527242</v>
+        <v>7.5272420000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>997.015000</v>
+        <v>997.01499999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.831000</v>
+        <v>-123.831</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>27109.101169</v>
+        <v>27109.101169000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.530306</v>
+        <v>7.5303060000000004</v>
       </c>
       <c r="BA6" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.590000</v>
+        <v>-142.59</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>27120.047180</v>
+        <v>27120.047180000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.533346</v>
+        <v>7.5333459999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1051.390000</v>
+        <v>1051.3900000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.721000</v>
+        <v>-227.721</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>27130.777167</v>
@@ -1689,43 +2105,43 @@
         <v>7.536327</v>
       </c>
       <c r="BK6" s="1">
-        <v>1130.790000</v>
+        <v>1130.79</v>
       </c>
       <c r="BL6" s="1">
-        <v>-364.619000</v>
+        <v>-364.61900000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>27141.632082</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.539342</v>
+        <v>7.5393420000000004</v>
       </c>
       <c r="BP6" s="1">
-        <v>1262.880000</v>
+        <v>1262.8800000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.694000</v>
+        <v>-575.69399999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>27152.291106</v>
+        <v>27152.291106000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.542303</v>
+        <v>7.5423030000000004</v>
       </c>
       <c r="BU6" s="1">
-        <v>1411.150000</v>
+        <v>1411.15</v>
       </c>
       <c r="BV6" s="1">
-        <v>-801.130000</v>
+        <v>-801.13</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>27163.327589</v>
@@ -1734,180 +2150,180 @@
         <v>7.545369</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1573.950000</v>
+        <v>1573.95</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1035.200000</v>
+        <v>-1035.2</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>27174.978612</v>
+        <v>27174.978611999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.548605</v>
+        <v>7.5486050000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1983.220000</v>
+        <v>1983.22</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1582.960000</v>
+        <v>-1582.96</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>27004.943650</v>
+        <v>27004.943650000001</v>
       </c>
       <c r="B7" s="1">
-        <v>7.501373</v>
+        <v>7.5013730000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>904.548000</v>
+        <v>904.548</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.856000</v>
+        <v>-196.85599999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>27015.399751</v>
+        <v>27015.399751000001</v>
       </c>
       <c r="G7" s="1">
-        <v>7.504278</v>
+        <v>7.5042780000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>921.588000</v>
+        <v>921.58799999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.804000</v>
+        <v>-166.804</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>27025.913947</v>
+        <v>27025.913947000001</v>
       </c>
       <c r="L7" s="1">
-        <v>7.507198</v>
+        <v>7.5071979999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>943.859000</v>
+        <v>943.85900000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.474000</v>
+        <v>-119.474</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>27036.337868</v>
+        <v>27036.337867999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.510094</v>
+        <v>7.5100939999999996</v>
       </c>
       <c r="R7" s="1">
-        <v>950.444000</v>
+        <v>950.44399999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.187000</v>
+        <v>-104.187</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>27046.601615</v>
       </c>
       <c r="V7" s="1">
-        <v>7.512945</v>
+        <v>7.5129450000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>956.914000</v>
+        <v>956.91399999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.322300</v>
+        <v>-90.322299999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>27056.789137</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.515775</v>
+        <v>7.5157749999999997</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.153000</v>
+        <v>964.15300000000002</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.477300</v>
+        <v>-80.4773</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>27066.985667</v>
+        <v>27066.985667000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.518607</v>
+        <v>7.5186070000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>968.977000</v>
+        <v>968.97699999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.961200</v>
+        <v>-79.961200000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>27077.491926</v>
+        <v>27077.491925999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.521526</v>
+        <v>7.5215259999999997</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.772000</v>
+        <v>976.77200000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.551200</v>
+        <v>-87.551199999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>27087.786408</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.524385</v>
+        <v>7.5243849999999997</v>
       </c>
       <c r="AQ7" s="1">
-        <v>985.807000</v>
+        <v>985.80700000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.324000</v>
+        <v>-102.324</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>27098.454843</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.527349</v>
+        <v>7.5273490000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.996000</v>
+        <v>996.99599999999998</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>27109.458616</v>
@@ -1916,587 +2332,587 @@
         <v>7.530405</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.574000</v>
+        <v>-142.57400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>27120.408764</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.533447</v>
+        <v>7.5334469999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1051.400000</v>
+        <v>1051.4000000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.744000</v>
+        <v>-227.744</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>27131.457150</v>
+        <v>27131.457149999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.536516</v>
+        <v>7.5365159999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1130.800000</v>
+        <v>1130.8</v>
       </c>
       <c r="BL7" s="1">
-        <v>-364.603000</v>
+        <v>-364.60300000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>27142.082448</v>
+        <v>27142.082448000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.539467</v>
+        <v>7.5394670000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1262.880000</v>
+        <v>1262.8800000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.726000</v>
+        <v>-575.726</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>27152.399761</v>
+        <v>27152.399761000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.542333</v>
+        <v>7.5423330000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1410.930000</v>
+        <v>1410.93</v>
       </c>
       <c r="BV7" s="1">
-        <v>-801.107000</v>
+        <v>-801.10699999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>27163.773492</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.545493</v>
+        <v>7.5454929999999996</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1573.800000</v>
+        <v>1573.8</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1035.320000</v>
+        <v>-1035.32</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>27175.512840</v>
+        <v>27175.512839999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.548754</v>
+        <v>7.5487539999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>1982.980000</v>
+        <v>1982.98</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1582.820000</v>
+        <v>-1582.82</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>27005.367172</v>
+        <v>27005.367171999998</v>
       </c>
       <c r="B8" s="1">
-        <v>7.501491</v>
+        <v>7.5014909999999997</v>
       </c>
       <c r="C8" s="1">
-        <v>904.374000</v>
+        <v>904.37400000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.891000</v>
+        <v>-196.89099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>27015.679990</v>
+        <v>27015.679990000001</v>
       </c>
       <c r="G8" s="1">
-        <v>7.504356</v>
+        <v>7.5043559999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>921.377000</v>
+        <v>921.37699999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.773000</v>
+        <v>-166.773</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>27026.190714</v>
       </c>
       <c r="L8" s="1">
-        <v>7.507275</v>
+        <v>7.5072749999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>943.834000</v>
+        <v>943.83399999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.494000</v>
+        <v>-119.494</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>27036.685597</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.510190</v>
+        <v>7.5101899999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>950.456000</v>
+        <v>950.45600000000002</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.212000</v>
+        <v>-104.212</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>27046.945837</v>
+        <v>27046.945836999999</v>
       </c>
       <c r="V8" s="1">
-        <v>7.513041</v>
+        <v>7.5130410000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>956.974000</v>
+        <v>956.97400000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.303900</v>
+        <v>-90.303899999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>27057.139088</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.515872</v>
+        <v>7.5158719999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.040000</v>
+        <v>964.04</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.502500</v>
+        <v>-80.502499999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>27067.677090</v>
+        <v>27067.677090000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.518799</v>
+        <v>7.5187989999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>968.974000</v>
+        <v>968.97400000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.981600</v>
+        <v>-79.9816</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>27077.850569</v>
+        <v>27077.850568999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.521625</v>
+        <v>7.5216250000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.769000</v>
+        <v>976.76900000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.544500</v>
+        <v>-87.544499999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>27088.144504</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.524485</v>
+        <v>7.5244850000000003</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.802000</v>
+        <v>985.80200000000002</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.377000</v>
+        <v>-102.377</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>27098.818409</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.527450</v>
+        <v>7.52745</v>
       </c>
       <c r="AV8" s="1">
-        <v>997.004000</v>
+        <v>997.00400000000002</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.827000</v>
+        <v>-123.827</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>27110.131658</v>
+        <v>27110.131657999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.530592</v>
+        <v>7.5305920000000004</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.520000</v>
+        <v>1006.52</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.592000</v>
+        <v>-142.59200000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>27121.085309</v>
+        <v>27121.085308999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.533635</v>
+        <v>7.5336350000000003</v>
       </c>
       <c r="BF8" s="1">
-        <v>1051.390000</v>
+        <v>1051.3900000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.739000</v>
+        <v>-227.739</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>27131.565774</v>
+        <v>27131.565773999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.536546</v>
+        <v>7.5365460000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1130.790000</v>
+        <v>1130.79</v>
       </c>
       <c r="BL8" s="1">
-        <v>-364.600000</v>
+        <v>-364.6</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>27142.412783</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.539559</v>
+        <v>7.5395589999999997</v>
       </c>
       <c r="BP8" s="1">
-        <v>1262.840000</v>
+        <v>1262.8399999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.736000</v>
+        <v>-575.73599999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>27152.837238</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.542455</v>
+        <v>7.5424550000000004</v>
       </c>
       <c r="BU8" s="1">
-        <v>1410.850000</v>
+        <v>1410.85</v>
       </c>
       <c r="BV8" s="1">
-        <v>-800.987000</v>
+        <v>-800.98699999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>27164.206034</v>
+        <v>27164.206033999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.545613</v>
+        <v>7.5456130000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1573.900000</v>
+        <v>1573.9</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1035.300000</v>
+        <v>-1035.3</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>27176.033106</v>
+        <v>27176.033105999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.548898</v>
+        <v>7.5488980000000003</v>
       </c>
       <c r="CE8" s="1">
-        <v>1984.040000</v>
+        <v>1984.04</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1583.990000</v>
+        <v>-1583.99</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>27005.638484</v>
+        <v>27005.638483999999</v>
       </c>
       <c r="B9" s="1">
-        <v>7.501566</v>
+        <v>7.5015660000000004</v>
       </c>
       <c r="C9" s="1">
-        <v>904.504000</v>
+        <v>904.50400000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.705000</v>
+        <v>-196.70500000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>27016.023718</v>
       </c>
       <c r="G9" s="1">
-        <v>7.504451</v>
+        <v>7.5044510000000004</v>
       </c>
       <c r="H9" s="1">
-        <v>921.626000</v>
+        <v>921.62599999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.815000</v>
+        <v>-166.815</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>27026.539896</v>
+        <v>27026.539895999998</v>
       </c>
       <c r="L9" s="1">
-        <v>7.507372</v>
+        <v>7.5073720000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>943.803000</v>
+        <v>943.803</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.602000</v>
+        <v>-119.602</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>27037.036730</v>
+        <v>27037.03673</v>
       </c>
       <c r="Q9" s="1">
-        <v>7.510288</v>
+        <v>7.5102880000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>950.432000</v>
+        <v>950.43200000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.196000</v>
+        <v>-104.196</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>27047.634252</v>
       </c>
       <c r="V9" s="1">
-        <v>7.513232</v>
+        <v>7.5132320000000004</v>
       </c>
       <c r="W9" s="1">
-        <v>956.864000</v>
+        <v>956.86400000000003</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.284900</v>
+        <v>-90.284899999999993</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>27057.835999</v>
+        <v>27057.835998999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.516066</v>
+        <v>7.5160660000000004</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.090000</v>
+        <v>964.09</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.506500</v>
+        <v>-80.506500000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>27068.021424</v>
+        <v>27068.021423999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.518895</v>
+        <v>7.5188949999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>968.947000</v>
+        <v>968.947</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.929500</v>
+        <v>-79.929500000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>27078.190788</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.521720</v>
+        <v>7.5217200000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.782000</v>
+        <v>976.78200000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.518900</v>
+        <v>-87.518900000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>27088.505095</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.524585</v>
+        <v>7.5245850000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>985.813000</v>
+        <v>985.81299999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.345000</v>
+        <v>-102.345</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>27099.508840</v>
+        <v>27099.508839999999</v>
       </c>
       <c r="AU9" s="1">
         <v>7.527641</v>
       </c>
       <c r="AV9" s="1">
-        <v>997.025000</v>
+        <v>997.02499999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.858000</v>
+        <v>-123.858</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>27110.570649</v>
+        <v>27110.570649000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.530714</v>
+        <v>7.5307139999999997</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.580000</v>
+        <v>-142.58000000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>27121.519308</v>
+        <v>27121.519307999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.533755</v>
+        <v>7.5337550000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1051.380000</v>
+        <v>1051.3800000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.736000</v>
+        <v>-227.73599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>27131.928382</v>
+        <v>27131.928381999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.536647</v>
+        <v>7.5366470000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1130.810000</v>
+        <v>1130.81</v>
       </c>
       <c r="BL9" s="1">
-        <v>-364.608000</v>
+        <v>-364.608</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>27142.820495</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.539672</v>
+        <v>7.5396720000000004</v>
       </c>
       <c r="BP9" s="1">
-        <v>1262.850000</v>
+        <v>1262.8499999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.724000</v>
+        <v>-575.72400000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>27153.253842</v>
+        <v>27153.253841999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.542571</v>
+        <v>7.5425709999999997</v>
       </c>
       <c r="BU9" s="1">
-        <v>1410.840000</v>
+        <v>1410.84</v>
       </c>
       <c r="BV9" s="1">
-        <v>-800.778000</v>
+        <v>-800.77800000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>27164.630083</v>
@@ -2505,13 +2921,13 @@
         <v>7.545731</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1573.790000</v>
+        <v>1573.79</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1035.380000</v>
+        <v>-1035.3800000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>27176.552946</v>
@@ -2520,497 +2936,497 @@
         <v>7.549042</v>
       </c>
       <c r="CE9" s="1">
-        <v>1985.320000</v>
+        <v>1985.32</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1582.860000</v>
+        <v>-1582.86</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>27005.981747</v>
+        <v>27005.981747000002</v>
       </c>
       <c r="B10" s="1">
-        <v>7.501662</v>
+        <v>7.5016619999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>904.477000</v>
+        <v>904.47699999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.888000</v>
+        <v>-196.88800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>27016.372405</v>
+        <v>27016.372404999998</v>
       </c>
       <c r="G10" s="1">
-        <v>7.504548</v>
+        <v>7.5045479999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>921.976000</v>
+        <v>921.976</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.988000</v>
+        <v>-166.988</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>27026.891064</v>
+        <v>27026.891063999999</v>
       </c>
       <c r="L10" s="1">
-        <v>7.507470</v>
+        <v>7.5074699999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>943.713000</v>
+        <v>943.71299999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.731000</v>
+        <v>-119.73099999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>27037.732619</v>
+        <v>27037.732618999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.510481</v>
+        <v>7.5104810000000004</v>
       </c>
       <c r="R10" s="1">
-        <v>950.406000</v>
+        <v>950.40599999999995</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.183000</v>
+        <v>-104.18300000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>27047.976030</v>
+        <v>27047.976030000002</v>
       </c>
       <c r="V10" s="1">
-        <v>7.513327</v>
+        <v>7.5133270000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>956.886000</v>
+        <v>956.88599999999997</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.310600</v>
+        <v>-90.310599999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>27058.184656</v>
+        <v>27058.184656000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.516162</v>
+        <v>7.5161619999999996</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.056000</v>
+        <v>964.05600000000004</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.457100</v>
+        <v>-80.457099999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>27068.372483</v>
+        <v>27068.372482999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.518992</v>
+        <v>7.5189919999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>968.957000</v>
+        <v>968.95699999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.905500</v>
+        <v>-79.905500000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>27078.841540</v>
+        <v>27078.841540000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.521900</v>
+        <v>7.5218999999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.777000</v>
+        <v>976.77700000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.512600</v>
+        <v>-87.512600000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>27089.178205</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.524772</v>
+        <v>7.5247719999999996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>985.814000</v>
+        <v>985.81399999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.362000</v>
+        <v>-102.36199999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>27099.936921</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.527760</v>
+        <v>7.5277599999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>997.009000</v>
+        <v>997.00900000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.842000</v>
+        <v>-123.842</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>27110.930713</v>
+        <v>27110.930713000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.530814</v>
+        <v>7.5308140000000003</v>
       </c>
       <c r="BA10" s="1">
-        <v>1006.470000</v>
+        <v>1006.47</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.587000</v>
+        <v>-142.58699999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>27121.879402</v>
+        <v>27121.879401999999</v>
       </c>
       <c r="BE10" s="1">
         <v>7.533855</v>
       </c>
       <c r="BF10" s="1">
-        <v>1051.400000</v>
+        <v>1051.4000000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.720000</v>
+        <v>-227.72</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>27132.304812</v>
+        <v>27132.304811999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.536751</v>
+        <v>7.5367509999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1130.760000</v>
+        <v>1130.76</v>
       </c>
       <c r="BL10" s="1">
-        <v>-364.600000</v>
+        <v>-364.6</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>27143.251022</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.539792</v>
+        <v>7.5397920000000003</v>
       </c>
       <c r="BP10" s="1">
-        <v>1262.860000</v>
+        <v>1262.8599999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.705000</v>
+        <v>-575.70500000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>27153.673953</v>
+        <v>27153.673953000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.542687</v>
+        <v>7.5426869999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1410.800000</v>
+        <v>1410.8</v>
       </c>
       <c r="BV10" s="1">
-        <v>-800.701000</v>
+        <v>-800.70100000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>27165.050691</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.545847</v>
+        <v>7.5458470000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1573.920000</v>
+        <v>1573.92</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1035.280000</v>
+        <v>-1035.28</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>27177.070769</v>
+        <v>27177.070769000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.549186</v>
+        <v>7.5491859999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>1984.090000</v>
+        <v>1984.09</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1581.990000</v>
+        <v>-1581.99</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>27006.320979</v>
       </c>
       <c r="B11" s="1">
-        <v>7.501756</v>
+        <v>7.5017560000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>904.536000</v>
+        <v>904.53599999999994</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.055000</v>
+        <v>-197.05500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>27017.066309</v>
+        <v>27017.066309000002</v>
       </c>
       <c r="G11" s="1">
-        <v>7.504741</v>
+        <v>7.5047410000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>921.297000</v>
+        <v>921.29700000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.250000</v>
+        <v>-167.25</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>27027.577528</v>
+        <v>27027.577528000002</v>
       </c>
       <c r="L11" s="1">
-        <v>7.507660</v>
+        <v>7.5076599999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>943.954000</v>
+        <v>943.95399999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.700000</v>
+        <v>-119.7</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>27038.079848</v>
+        <v>27038.079848000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.510578</v>
+        <v>7.5105779999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>950.456000</v>
+        <v>950.45600000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.206000</v>
+        <v>-104.206</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>27048.319757</v>
+        <v>27048.319757000001</v>
       </c>
       <c r="V11" s="1">
-        <v>7.513422</v>
+        <v>7.5134220000000003</v>
       </c>
       <c r="W11" s="1">
-        <v>956.926000</v>
+        <v>956.92600000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.301100</v>
+        <v>-90.301100000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>27058.533837</v>
+        <v>27058.533836999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.516259</v>
+        <v>7.5162589999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.958000</v>
+        <v>963.95799999999997</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.611600</v>
+        <v>-80.611599999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>27069.030176</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.519175</v>
+        <v>7.5191749999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>968.951000</v>
+        <v>968.95100000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.916000</v>
+        <v>-79.915999999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>27079.237091</v>
+        <v>27079.237090999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.522010</v>
+        <v>7.5220099999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.767000</v>
+        <v>976.76700000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.527100</v>
+        <v>-87.527100000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>27089.617621</v>
+        <v>27089.617621000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.524894</v>
+        <v>7.5248939999999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>985.804000</v>
+        <v>985.80399999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.359000</v>
+        <v>-102.35899999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>27100.302935</v>
       </c>
       <c r="AU11" s="1">
-        <v>7.527862</v>
+        <v>7.5278619999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>997.014000</v>
+        <v>997.01400000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.851000</v>
+        <v>-123.851</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>27111.290314</v>
+        <v>27111.290314000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.530914</v>
+        <v>7.5309140000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.612000</v>
+        <v>-142.61199999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>27122.241979</v>
+        <v>27122.241978999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.533956</v>
+        <v>7.5339559999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1051.370000</v>
+        <v>1051.3699999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.734000</v>
+        <v>-227.73400000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>27132.730876</v>
+        <v>27132.730876000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.536870</v>
+        <v>7.5368700000000004</v>
       </c>
       <c r="BK11" s="1">
-        <v>1130.820000</v>
+        <v>1130.82</v>
       </c>
       <c r="BL11" s="1">
-        <v>-364.622000</v>
+        <v>-364.62200000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>27143.628973</v>
+        <v>27143.628972999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.539897</v>
+        <v>7.5398969999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1262.860000</v>
+        <v>1262.8599999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.731000</v>
+        <v>-575.73099999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>27154.082191</v>
+        <v>27154.082191000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.542801</v>
+        <v>7.5428009999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1410.910000</v>
+        <v>1410.91</v>
       </c>
       <c r="BV11" s="1">
-        <v>-800.524000</v>
+        <v>-800.524</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>27165.477249</v>
@@ -3019,1345 +3435,1345 @@
         <v>7.545966</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1573.650000</v>
+        <v>1573.65</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1035.260000</v>
+        <v>-1035.26</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>27177.586576</v>
+        <v>27177.586576000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.549330</v>
+        <v>7.5493300000000003</v>
       </c>
       <c r="CE11" s="1">
-        <v>1984.600000</v>
+        <v>1984.6</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1581.940000</v>
+        <v>-1581.94</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>27007.003970</v>
+        <v>27007.003970000002</v>
       </c>
       <c r="B12" s="1">
-        <v>7.501946</v>
+        <v>7.5019460000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>904.315000</v>
+        <v>904.31500000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.949000</v>
+        <v>-196.94900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>27017.411559</v>
       </c>
       <c r="G12" s="1">
-        <v>7.504837</v>
+        <v>7.5048370000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>921.355000</v>
+        <v>921.35500000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.047000</v>
+        <v>-167.047</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>27027.926711</v>
       </c>
       <c r="L12" s="1">
-        <v>7.507757</v>
+        <v>7.5077569999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>943.883000</v>
+        <v>943.88300000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.887000</v>
+        <v>-119.887</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>27038.430521</v>
+        <v>27038.430520999998</v>
       </c>
       <c r="Q12" s="1">
         <v>7.510675</v>
       </c>
       <c r="R12" s="1">
-        <v>950.452000</v>
+        <v>950.452</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.147000</v>
+        <v>-104.14700000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>27048.976426</v>
+        <v>27048.976426000001</v>
       </c>
       <c r="V12" s="1">
-        <v>7.513605</v>
+        <v>7.5136050000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>956.838000</v>
+        <v>956.83799999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.315200</v>
+        <v>-90.315200000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>27059.195006</v>
+        <v>27059.195006000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.516443</v>
+        <v>7.5164429999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.073000</v>
+        <v>964.07299999999998</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.493200</v>
+        <v>-80.493200000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>27069.398208</v>
+        <v>27069.398207999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.519277</v>
+        <v>7.5192769999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.947000</v>
+        <v>968.947</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.941100</v>
+        <v>-79.941100000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>27079.585075</v>
+        <v>27079.585074999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.522107</v>
+        <v>7.5221070000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.757000</v>
+        <v>976.75699999999995</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.532400</v>
+        <v>-87.532399999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>27089.978212</v>
+        <v>27089.978212000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.524994</v>
+        <v>7.5249940000000004</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.798000</v>
+        <v>985.798</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.361000</v>
+        <v>-102.361</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>27100.668983</v>
       </c>
       <c r="AU12" s="1">
-        <v>7.527964</v>
+        <v>7.5279639999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>997.023000</v>
+        <v>997.02300000000002</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.838000</v>
+        <v>-123.83799999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>27111.717464</v>
+        <v>27111.717464000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.531033</v>
+        <v>7.5310329999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.520000</v>
+        <v>1006.52</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.582000</v>
+        <v>-142.58199999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>27122.659609</v>
+        <v>27122.659608999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.534072</v>
+        <v>7.5340720000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1051.390000</v>
+        <v>1051.3900000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.723000</v>
+        <v>-227.72300000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>27133.063691</v>
+        <v>27133.063690999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.536962</v>
+        <v>7.5369619999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1130.800000</v>
+        <v>1130.8</v>
       </c>
       <c r="BL12" s="1">
-        <v>-364.643000</v>
+        <v>-364.64299999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>27144.052061</v>
+        <v>27144.052060999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.540014</v>
+        <v>7.5400140000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1262.870000</v>
+        <v>1262.8699999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.728000</v>
+        <v>-575.72799999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>27154.496817</v>
+        <v>27154.496816999999</v>
       </c>
       <c r="BT12" s="1">
         <v>7.542916</v>
       </c>
       <c r="BU12" s="1">
-        <v>1410.950000</v>
+        <v>1410.95</v>
       </c>
       <c r="BV12" s="1">
-        <v>-800.495000</v>
+        <v>-800.495</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>27165.893888</v>
+        <v>27165.893887999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.546082</v>
+        <v>7.5460820000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1573.750000</v>
+        <v>1573.75</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1035.250000</v>
+        <v>-1035.25</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>27178.141600</v>
+        <v>27178.141599999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.549484</v>
+        <v>7.5494839999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>1984.870000</v>
+        <v>1984.87</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1583.160000</v>
+        <v>-1583.16</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>27007.349185</v>
+        <v>27007.349184999999</v>
       </c>
       <c r="B13" s="1">
-        <v>7.502041</v>
+        <v>7.5020410000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>904.512000</v>
+        <v>904.51199999999994</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.080000</v>
+        <v>-197.08</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>27017.757236</v>
+        <v>27017.757236000001</v>
       </c>
       <c r="G13" s="1">
-        <v>7.504933</v>
+        <v>7.5049330000000003</v>
       </c>
       <c r="H13" s="1">
-        <v>921.271000</v>
+        <v>921.27099999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.234000</v>
+        <v>-167.23400000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>27028.586389</v>
       </c>
       <c r="L13" s="1">
-        <v>7.507941</v>
+        <v>7.5079409999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>943.830000</v>
+        <v>943.83</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.729000</v>
+        <v>-119.729</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>27039.098104</v>
+        <v>27039.098104000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.510861</v>
+        <v>7.5108610000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>950.474000</v>
+        <v>950.47400000000005</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.218000</v>
+        <v>-104.218</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>27049.351898</v>
+        <v>27049.351898000001</v>
       </c>
       <c r="V13" s="1">
-        <v>7.513709</v>
+        <v>7.5137090000000004</v>
       </c>
       <c r="W13" s="1">
-        <v>956.905000</v>
+        <v>956.90499999999997</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.257200</v>
+        <v>-90.257199999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>27059.579405</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.516550</v>
+        <v>7.5165499999999996</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.903000</v>
+        <v>963.90300000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.585300</v>
+        <v>-80.585300000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>27069.741472</v>
+        <v>27069.741472000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.519373</v>
+        <v>7.5193729999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>968.970000</v>
+        <v>968.97</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.926400</v>
+        <v>-79.926400000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>27079.930259</v>
+        <v>27079.930259000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.522203</v>
+        <v>7.5222030000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.754000</v>
+        <v>976.75400000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.527400</v>
+        <v>-87.5274</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>27090.342772</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.525095</v>
+        <v>7.5250950000000003</v>
       </c>
       <c r="AQ13" s="1">
-        <v>985.810000</v>
+        <v>985.81</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.360000</v>
+        <v>-102.36</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>27101.096037</v>
+        <v>27101.096036999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.528082</v>
+        <v>7.5280820000000004</v>
       </c>
       <c r="AV13" s="1">
-        <v>997.018000</v>
+        <v>997.01800000000003</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.841000</v>
+        <v>-123.84099999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>27112.004584</v>
+        <v>27112.004583999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.531112</v>
+        <v>7.5311120000000003</v>
       </c>
       <c r="BA13" s="1">
-        <v>1006.510000</v>
+        <v>1006.51</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.585000</v>
+        <v>-142.58500000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>27122.960712</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.534156</v>
+        <v>7.5341560000000003</v>
       </c>
       <c r="BF13" s="1">
-        <v>1051.380000</v>
+        <v>1051.3800000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.722000</v>
+        <v>-227.72200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>27133.451596</v>
+        <v>27133.451595999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.537070</v>
+        <v>7.5370699999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1130.820000</v>
+        <v>1130.82</v>
       </c>
       <c r="BL13" s="1">
-        <v>-364.604000</v>
+        <v>-364.60399999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>27144.445397</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.540124</v>
+        <v>7.5401239999999996</v>
       </c>
       <c r="BP13" s="1">
-        <v>1262.890000</v>
+        <v>1262.8900000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.715000</v>
+        <v>-575.71500000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>27154.912463</v>
+        <v>27154.912463000001</v>
       </c>
       <c r="BT13" s="1">
         <v>7.543031</v>
       </c>
       <c r="BU13" s="1">
-        <v>1411.110000</v>
+        <v>1411.11</v>
       </c>
       <c r="BV13" s="1">
-        <v>-800.418000</v>
+        <v>-800.41800000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>27166.343760</v>
+        <v>27166.34376</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.546207</v>
+        <v>7.5462069999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1573.920000</v>
+        <v>1573.92</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1035.400000</v>
+        <v>-1035.4000000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>27178.668351</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.549630</v>
+        <v>7.5496299999999996</v>
       </c>
       <c r="CE13" s="1">
-        <v>1984.080000</v>
+        <v>1984.08</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1582.130000</v>
+        <v>-1582.13</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>27007.688945</v>
+        <v>27007.688945000002</v>
       </c>
       <c r="B14" s="1">
-        <v>7.502136</v>
+        <v>7.5021360000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>904.432000</v>
+        <v>904.43200000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.940000</v>
+        <v>-196.94</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>27018.406996</v>
+        <v>27018.406996000002</v>
       </c>
       <c r="G14" s="1">
-        <v>7.505113</v>
+        <v>7.5051129999999997</v>
       </c>
       <c r="H14" s="1">
-        <v>920.993000</v>
+        <v>920.99300000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.212000</v>
+        <v>-167.21199999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>27028.960869</v>
+        <v>27028.960868999999</v>
       </c>
       <c r="L14" s="1">
-        <v>7.508045</v>
+        <v>7.5080450000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>943.921000</v>
+        <v>943.92100000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.659000</v>
+        <v>-119.65900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>27039.476551</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.510966</v>
+        <v>7.5109659999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>950.433000</v>
+        <v>950.43299999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.231000</v>
+        <v>-104.23099999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>27049.695658</v>
+        <v>27049.695658000001</v>
       </c>
       <c r="V14" s="1">
-        <v>7.513804</v>
+        <v>7.5138040000000004</v>
       </c>
       <c r="W14" s="1">
-        <v>956.900000</v>
+        <v>956.9</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.275300</v>
+        <v>-90.275300000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>27059.916684</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.516644</v>
+        <v>7.5166440000000003</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.056000</v>
+        <v>964.05600000000004</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.527600</v>
+        <v>-80.527600000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>27070.084671</v>
+        <v>27070.084671000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.519468</v>
+        <v>7.5194679999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>968.926000</v>
+        <v>968.92600000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.944600</v>
+        <v>-79.944599999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>27080.345907</v>
+        <v>27080.345906999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.522318</v>
+        <v>7.5223180000000003</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.758000</v>
+        <v>976.75800000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.518100</v>
+        <v>-87.518100000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>27090.774825</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.525215</v>
+        <v>7.5252150000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>985.790000</v>
+        <v>985.79</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.347000</v>
+        <v>-102.34699999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>27101.398103</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.528166</v>
+        <v>7.5281659999999997</v>
       </c>
       <c r="AV14" s="1">
-        <v>997.017000</v>
+        <v>997.01700000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.846000</v>
+        <v>-123.846</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>27112.365142</v>
+        <v>27112.365141999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.531213</v>
+        <v>7.5312130000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.490000</v>
+        <v>1006.49</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.579000</v>
+        <v>-142.57900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>27123.315816</v>
+        <v>27123.315815999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.534254</v>
+        <v>7.5342539999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1051.360000</v>
+        <v>1051.3599999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.717000</v>
+        <v>-227.71700000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>27133.829546</v>
+        <v>27133.829546000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.537175</v>
+        <v>7.5371750000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1130.790000</v>
+        <v>1130.79</v>
       </c>
       <c r="BL14" s="1">
-        <v>-364.613000</v>
+        <v>-364.613</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>27144.873436</v>
+        <v>27144.873436000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.540243</v>
+        <v>7.5402430000000003</v>
       </c>
       <c r="BP14" s="1">
-        <v>1262.850000</v>
+        <v>1262.8499999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.728000</v>
+        <v>-575.72799999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>27155.350926</v>
+        <v>27155.350925999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.543153</v>
+        <v>7.5431530000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>1411.240000</v>
+        <v>1411.24</v>
       </c>
       <c r="BV14" s="1">
-        <v>-800.398000</v>
+        <v>-800.39800000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>27166.764367</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.546323</v>
+        <v>7.5463230000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1573.930000</v>
+        <v>1573.93</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1035.280000</v>
+        <v>-1035.28</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>27179.188656</v>
+        <v>27179.188655999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.549775</v>
+        <v>7.5497750000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>1984.710000</v>
+        <v>1984.71</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1581.810000</v>
+        <v>-1581.81</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>27008.342672</v>
+        <v>27008.342671999999</v>
       </c>
       <c r="B15" s="1">
-        <v>7.502317</v>
+        <v>7.5023169999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>904.475000</v>
+        <v>904.47500000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.824000</v>
+        <v>-196.82400000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>27018.788418</v>
       </c>
       <c r="G15" s="1">
-        <v>7.505219</v>
+        <v>7.5052190000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>921.315000</v>
+        <v>921.31500000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.188000</v>
+        <v>-167.18799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>27029.306084</v>
       </c>
       <c r="L15" s="1">
-        <v>7.508141</v>
+        <v>7.5081410000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>943.793000</v>
+        <v>943.79300000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.422000</v>
+        <v>-119.422</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>27039.826760</v>
+        <v>27039.82676</v>
       </c>
       <c r="Q15" s="1">
         <v>7.511063</v>
       </c>
       <c r="R15" s="1">
-        <v>950.397000</v>
+        <v>950.39700000000005</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.212000</v>
+        <v>-104.212</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>27050.045306</v>
       </c>
       <c r="V15" s="1">
-        <v>7.513901</v>
+        <v>7.5139009999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>956.845000</v>
+        <v>956.84500000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.247900</v>
+        <v>-90.247900000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>27060.504444</v>
+        <v>27060.504443999998</v>
       </c>
       <c r="AA15" s="1">
         <v>7.516807</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.091000</v>
+        <v>964.09100000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.542200</v>
+        <v>-80.542199999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>27070.503327</v>
+        <v>27070.503326999999</v>
       </c>
       <c r="AF15" s="1">
         <v>7.519584</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.939000</v>
+        <v>968.93899999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.924900</v>
+        <v>-79.924899999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>27080.628624</v>
+        <v>27080.628624000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.522397</v>
+        <v>7.5223969999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.760000</v>
+        <v>976.76</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.515700</v>
+        <v>-87.515699999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>27091.056516</v>
+        <v>27091.056516000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.525293</v>
+        <v>7.5252929999999996</v>
       </c>
       <c r="AQ15" s="1">
-        <v>985.793000</v>
+        <v>985.79300000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.342000</v>
+        <v>-102.342</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>27101.758720</v>
+        <v>27101.758720000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.528266</v>
+        <v>7.5282660000000003</v>
       </c>
       <c r="AV15" s="1">
-        <v>997.022000</v>
+        <v>997.02200000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.850000</v>
+        <v>-123.85</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>27112.722294</v>
+        <v>27112.722293999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>7.531312</v>
+        <v>7.5313119999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.490000</v>
+        <v>1006.49</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.583000</v>
+        <v>-142.583</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>27123.687816</v>
+        <v>27123.687816000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.534358</v>
+        <v>7.5343580000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1051.390000</v>
+        <v>1051.3900000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.716000</v>
+        <v>-227.71600000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>27134.581945</v>
+        <v>27134.581945000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.537384</v>
+        <v>7.5373840000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1130.790000</v>
+        <v>1130.79</v>
       </c>
       <c r="BL15" s="1">
-        <v>-364.598000</v>
+        <v>-364.59800000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>27145.268251</v>
+        <v>27145.268251000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.540352</v>
+        <v>7.5403520000000004</v>
       </c>
       <c r="BP15" s="1">
-        <v>1262.870000</v>
+        <v>1262.8699999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.747000</v>
+        <v>-575.74699999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>27155.780312</v>
+        <v>27155.780311999999</v>
       </c>
       <c r="BT15" s="1">
         <v>7.543272</v>
       </c>
       <c r="BU15" s="1">
-        <v>1411.340000</v>
+        <v>1411.34</v>
       </c>
       <c r="BV15" s="1">
-        <v>-800.390000</v>
+        <v>-800.39</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>27167.187983</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.546441</v>
+        <v>7.5464409999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1573.860000</v>
+        <v>1573.86</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1035.340000</v>
+        <v>-1035.3399999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>27180.050237</v>
+        <v>27180.050236999999</v>
       </c>
       <c r="CD15" s="1">
         <v>7.550014</v>
       </c>
       <c r="CE15" s="1">
-        <v>1984.910000</v>
+        <v>1984.91</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1583.070000</v>
+        <v>-1583.07</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>27008.711697</v>
+        <v>27008.711696999999</v>
       </c>
       <c r="B16" s="1">
-        <v>7.502420</v>
+        <v>7.5024199999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>904.397000</v>
+        <v>904.39700000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.875000</v>
+        <v>-196.875</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>27019.132675</v>
+        <v>27019.132675000001</v>
       </c>
       <c r="G16" s="1">
-        <v>7.505315</v>
+        <v>7.5053150000000004</v>
       </c>
       <c r="H16" s="1">
-        <v>921.567000</v>
+        <v>921.56700000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.766000</v>
+        <v>-166.76599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>27029.653284</v>
       </c>
       <c r="L16" s="1">
-        <v>7.508237</v>
+        <v>7.5082370000000003</v>
       </c>
       <c r="M16" s="1">
-        <v>943.948000</v>
+        <v>943.94799999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.675000</v>
+        <v>-119.675</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>27040.175943</v>
+        <v>27040.175942999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.511160</v>
+        <v>7.5111600000000003</v>
       </c>
       <c r="R16" s="1">
-        <v>950.393000</v>
+        <v>950.39300000000003</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.186000</v>
+        <v>-104.18600000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>27050.473023</v>
+        <v>27050.473022999999</v>
       </c>
       <c r="V16" s="1">
-        <v>7.514020</v>
+        <v>7.5140200000000004</v>
       </c>
       <c r="W16" s="1">
-        <v>956.826000</v>
+        <v>956.82600000000002</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.270500</v>
+        <v>-90.270499999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>27060.626459</v>
+        <v>27060.626458999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.516841</v>
+        <v>7.5168410000000003</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.094000</v>
+        <v>964.09400000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.434600</v>
+        <v>-80.434600000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>27070.782047</v>
+        <v>27070.782047000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.519662</v>
+        <v>7.5196620000000003</v>
       </c>
       <c r="AG16" s="1">
-        <v>968.956000</v>
+        <v>968.95600000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.951000</v>
+        <v>-79.950999999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>27080.977835</v>
+        <v>27080.977835000002</v>
       </c>
       <c r="AK16" s="1">
         <v>7.522494</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.771000</v>
+        <v>976.77099999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.518400</v>
+        <v>-87.5184</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>27091.420084</v>
+        <v>27091.420084000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.525394</v>
+        <v>7.5253940000000004</v>
       </c>
       <c r="AQ16" s="1">
-        <v>985.793000</v>
+        <v>985.79300000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.350000</v>
+        <v>-102.35</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>27102.129204</v>
+        <v>27102.129204000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.528369</v>
+        <v>7.5283689999999996</v>
       </c>
       <c r="AV16" s="1">
-        <v>997.009000</v>
+        <v>997.00900000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.836000</v>
+        <v>-123.836</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>27113.440967</v>
+        <v>27113.440966999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.531511</v>
+        <v>7.5315110000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.586000</v>
+        <v>-142.58600000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>27124.413959</v>
+        <v>27124.413959000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.534559</v>
+        <v>7.5345589999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1051.380000</v>
+        <v>1051.3800000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.726000</v>
+        <v>-227.726</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>27134.955433</v>
+        <v>27134.955432999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.537488</v>
+        <v>7.5374879999999997</v>
       </c>
       <c r="BK16" s="1">
-        <v>1130.800000</v>
+        <v>1130.8</v>
       </c>
       <c r="BL16" s="1">
-        <v>-364.582000</v>
+        <v>-364.58199999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>27145.686875</v>
+        <v>27145.686874999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.540469</v>
+        <v>7.5404689999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1262.840000</v>
+        <v>1262.8399999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.770000</v>
+        <v>-575.77</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>27156.179741</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.543383</v>
+        <v>7.5433830000000004</v>
       </c>
       <c r="BU16" s="1">
-        <v>1411.420000</v>
+        <v>1411.42</v>
       </c>
       <c r="BV16" s="1">
-        <v>-800.540000</v>
+        <v>-800.54</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>27167.951325</v>
+        <v>27167.951325000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.546653</v>
+        <v>7.5466530000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1573.750000</v>
+        <v>1573.75</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1035.260000</v>
+        <v>-1035.26</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>27180.267949</v>
+        <v>27180.267949000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.550074</v>
+        <v>7.5500740000000004</v>
       </c>
       <c r="CE16" s="1">
-        <v>1984.410000</v>
+        <v>1984.41</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1581.870000</v>
+        <v>-1581.87</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>27009.058923</v>
+        <v>27009.058923000001</v>
       </c>
       <c r="B17" s="1">
         <v>7.502516</v>
       </c>
       <c r="C17" s="1">
-        <v>904.341000</v>
+        <v>904.34100000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.990000</v>
+        <v>-196.99</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>27019.481329</v>
+        <v>27019.481328999998</v>
       </c>
       <c r="G17" s="1">
-        <v>7.505411</v>
+        <v>7.5054109999999996</v>
       </c>
       <c r="H17" s="1">
-        <v>921.727000</v>
+        <v>921.72699999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.135000</v>
+        <v>-167.13499999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>27030.079876</v>
@@ -4366,1358 +4782,1358 @@
         <v>7.508356</v>
       </c>
       <c r="M17" s="1">
-        <v>943.933000</v>
+        <v>943.93299999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.786000</v>
+        <v>-119.786</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>27040.598997</v>
+        <v>27040.598997000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.511277</v>
+        <v>7.5112769999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>950.427000</v>
+        <v>950.42700000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.197000</v>
+        <v>-104.197</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>27050.749625</v>
       </c>
       <c r="V17" s="1">
-        <v>7.514097</v>
+        <v>7.5140969999999996</v>
       </c>
       <c r="W17" s="1">
-        <v>956.921000</v>
+        <v>956.92100000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.297700</v>
+        <v>-90.297700000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>27060.974650</v>
+        <v>27060.97465</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.516937</v>
+        <v>7.5169370000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.148000</v>
+        <v>964.14800000000002</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.458400</v>
+        <v>-80.458399999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>27071.126791</v>
+        <v>27071.126790999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.519757</v>
+        <v>7.5197570000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>968.956000</v>
+        <v>968.95600000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.944200</v>
+        <v>-79.944199999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>27081.325007</v>
+        <v>27081.325006999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.522590</v>
+        <v>7.5225900000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.797000</v>
+        <v>976.79700000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.547500</v>
+        <v>-87.547499999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>27091.771250</v>
+        <v>27091.771250000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.525492</v>
+        <v>7.5254919999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>985.796000</v>
+        <v>985.79600000000005</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.356000</v>
+        <v>-102.35599999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>27102.852371</v>
+        <v>27102.852371000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.528570</v>
+        <v>7.5285700000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>997.018000</v>
+        <v>997.01800000000003</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.857000</v>
+        <v>-123.857</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>27113.803540</v>
+        <v>27113.803540000001</v>
       </c>
       <c r="AZ17" s="1">
         <v>7.531612</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.480000</v>
+        <v>1006.48</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.594000</v>
+        <v>-142.59399999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>27124.772568</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.534659</v>
+        <v>7.5346590000000004</v>
       </c>
       <c r="BF17" s="1">
-        <v>1051.370000</v>
+        <v>1051.3699999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.746000</v>
+        <v>-227.74600000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>27135.329912</v>
+        <v>27135.329912000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.537592</v>
+        <v>7.5375920000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1130.770000</v>
+        <v>1130.77</v>
       </c>
       <c r="BL17" s="1">
-        <v>-364.637000</v>
+        <v>-364.637</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>27146.395690</v>
+        <v>27146.395690000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.540665</v>
+        <v>7.5406649999999997</v>
       </c>
       <c r="BP17" s="1">
-        <v>1262.870000</v>
+        <v>1262.8699999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.758000</v>
+        <v>-575.75800000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>27156.929196</v>
+        <v>27156.929196000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>7.543591</v>
+        <v>7.5435910000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1411.490000</v>
+        <v>1411.49</v>
       </c>
       <c r="BV17" s="1">
-        <v>-800.537000</v>
+        <v>-800.53700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>27168.067357</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.546685</v>
+        <v>7.5466850000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1573.760000</v>
+        <v>1573.76</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1035.330000</v>
+        <v>-1035.33</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>27180.789271</v>
+        <v>27180.789271000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.550219</v>
+        <v>7.5502190000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1983.110000</v>
+        <v>1983.11</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1583.700000</v>
+        <v>-1583.7</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>27009.402128</v>
+        <v>27009.402128000002</v>
       </c>
       <c r="B18" s="1">
-        <v>7.502612</v>
+        <v>7.5026120000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>904.184000</v>
+        <v>904.18399999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.969000</v>
+        <v>-196.96899999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>27019.914833</v>
+        <v>27019.914832999999</v>
       </c>
       <c r="G18" s="1">
-        <v>7.505532</v>
+        <v>7.5055319999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>921.083000</v>
+        <v>921.08299999999997</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.813000</v>
+        <v>-166.81299999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>27030.346196</v>
+        <v>27030.346195999999</v>
       </c>
       <c r="L18" s="1">
-        <v>7.508429</v>
+        <v>7.5084289999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>943.750000</v>
+        <v>943.75</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.708000</v>
+        <v>-119.708</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>27040.880236</v>
+        <v>27040.880236000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.511356</v>
+        <v>7.5113560000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>950.439000</v>
+        <v>950.43899999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.196000</v>
+        <v>-104.196</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>27051.094840</v>
+        <v>27051.094840000002</v>
       </c>
       <c r="V18" s="1">
-        <v>7.514193</v>
+        <v>7.5141929999999997</v>
       </c>
       <c r="W18" s="1">
-        <v>956.843000</v>
+        <v>956.84299999999996</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.258800</v>
+        <v>-90.258799999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>27061.318908</v>
+        <v>27061.318908000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.517033</v>
+        <v>7.5170329999999996</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.042000</v>
+        <v>964.04200000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.518800</v>
+        <v>-80.518799999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>27071.470513</v>
       </c>
       <c r="AF18" s="1">
-        <v>7.519853</v>
+        <v>7.5198530000000003</v>
       </c>
       <c r="AG18" s="1">
-        <v>968.945000</v>
+        <v>968.94500000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.962700</v>
+        <v>-79.962699999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>27082.023870</v>
+        <v>27082.023870000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.522784</v>
+        <v>7.5227839999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.754000</v>
+        <v>976.75400000000002</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.519000</v>
+        <v>-87.519000000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>27092.507313</v>
+        <v>27092.507312999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.525696</v>
+        <v>7.5256959999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>985.800000</v>
+        <v>985.8</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.348000</v>
+        <v>-102.348</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>27103.222883</v>
+        <v>27103.222882999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.528673</v>
+        <v>7.5286730000000004</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.991000</v>
+        <v>996.99099999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.851000</v>
+        <v>-123.851</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>27114.158708</v>
+        <v>27114.158707999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.531711</v>
+        <v>7.5317109999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.510000</v>
+        <v>1006.51</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.581000</v>
+        <v>-142.58099999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>27125.133158</v>
+        <v>27125.133158000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.534759</v>
+        <v>7.5347590000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1051.380000</v>
+        <v>1051.3800000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.714000</v>
+        <v>-227.714</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>27136.019352</v>
+        <v>27136.019351999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.537783</v>
+        <v>7.5377830000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1130.740000</v>
+        <v>1130.74</v>
       </c>
       <c r="BL18" s="1">
-        <v>-364.607000</v>
+        <v>-364.60700000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>27146.522634</v>
+        <v>27146.522634000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.540701</v>
+        <v>7.5407010000000003</v>
       </c>
       <c r="BP18" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.715000</v>
+        <v>-575.71500000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>27157.048237</v>
+        <v>27157.048236999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.543625</v>
+        <v>7.5436249999999996</v>
       </c>
       <c r="BU18" s="1">
-        <v>1411.590000</v>
+        <v>1411.59</v>
       </c>
       <c r="BV18" s="1">
-        <v>-800.682000</v>
+        <v>-800.68200000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>27168.508300</v>
+        <v>27168.508300000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.546808</v>
+        <v>7.5468080000000004</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1573.820000</v>
+        <v>1573.82</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1035.300000</v>
+        <v>-1035.3</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>27181.328428</v>
+        <v>27181.328428000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.550369</v>
+        <v>7.5503689999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1985.000000</v>
+        <v>1985</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1582.590000</v>
+        <v>-1582.59</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>27009.820784</v>
       </c>
       <c r="B19" s="1">
-        <v>7.502728</v>
+        <v>7.5027280000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>904.263000</v>
+        <v>904.26300000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.994000</v>
+        <v>-196.994</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>27020.196560</v>
+        <v>27020.19656</v>
       </c>
       <c r="G19" s="1">
-        <v>7.505610</v>
+        <v>7.5056099999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>921.279000</v>
+        <v>921.279</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.244000</v>
+        <v>-167.244</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>27030.687938</v>
+        <v>27030.687937999999</v>
       </c>
       <c r="L19" s="1">
-        <v>7.508524</v>
+        <v>7.5085240000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>943.929000</v>
+        <v>943.92899999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.608000</v>
+        <v>-119.608</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>27041.226438</v>
+        <v>27041.226438000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.511452</v>
+        <v>7.5114520000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>950.470000</v>
+        <v>950.47</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.202000</v>
+        <v>-104.202</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>27051.435127</v>
+        <v>27051.435127000001</v>
       </c>
       <c r="V19" s="1">
-        <v>7.514288</v>
+        <v>7.5142879999999996</v>
       </c>
       <c r="W19" s="1">
-        <v>956.855000</v>
+        <v>956.85500000000002</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.254900</v>
+        <v>-90.254900000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>27062.019225</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.517228</v>
+        <v>7.5172280000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.081000</v>
+        <v>964.08100000000002</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.486500</v>
+        <v>-80.486500000000007</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>27072.157948</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.520044</v>
+        <v>7.5200440000000004</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.953000</v>
+        <v>968.95299999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.907600</v>
+        <v>-79.907600000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>27082.372095</v>
+        <v>27082.372094999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.522881</v>
+        <v>7.5228809999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.742000</v>
+        <v>976.74199999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.519100</v>
+        <v>-87.519099999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>27092.881793</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.525800</v>
+        <v>7.5258000000000003</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.818000</v>
+        <v>985.81799999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.352000</v>
+        <v>-102.352</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>27103.585954</v>
+        <v>27103.585953999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.528774</v>
+        <v>7.5287740000000003</v>
       </c>
       <c r="AV19" s="1">
-        <v>997.001000</v>
+        <v>997.00099999999998</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.849000</v>
+        <v>-123.849</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>27114.830789</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.531897</v>
+        <v>7.5318969999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1006.490000</v>
+        <v>1006.49</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.586000</v>
+        <v>-142.58600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>27125.579061</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.534883</v>
+        <v>7.5348829999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1051.360000</v>
+        <v>1051.3599999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.725000</v>
+        <v>-227.72499999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>27136.458343</v>
+        <v>27136.458342999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.537905</v>
+        <v>7.5379050000000003</v>
       </c>
       <c r="BK19" s="1">
-        <v>1130.810000</v>
+        <v>1130.81</v>
       </c>
       <c r="BL19" s="1">
-        <v>-364.595000</v>
+        <v>-364.59500000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>27146.931108</v>
+        <v>27146.931108000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>7.540814</v>
+        <v>7.5408140000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.708000</v>
+        <v>-575.70799999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>27157.465371</v>
+        <v>27157.465370999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.543740</v>
+        <v>7.5437399999999997</v>
       </c>
       <c r="BU19" s="1">
-        <v>1411.590000</v>
+        <v>1411.59</v>
       </c>
       <c r="BV19" s="1">
-        <v>-800.779000</v>
+        <v>-800.779</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>27168.927948</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.546924</v>
+        <v>7.5469239999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1573.750000</v>
+        <v>1573.75</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1035.390000</v>
+        <v>-1035.3900000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>27181.868043</v>
+        <v>27181.868042999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.550519</v>
+        <v>7.5505190000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>1983.360000</v>
+        <v>1983.36</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1582.330000</v>
+        <v>-1582.33</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>27010.101982</v>
       </c>
       <c r="B20" s="1">
-        <v>7.502806</v>
+        <v>7.5028059999999996</v>
       </c>
       <c r="C20" s="1">
-        <v>904.503000</v>
+        <v>904.50300000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.860000</v>
+        <v>-196.86</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>27020.539296</v>
+        <v>27020.539295999999</v>
       </c>
       <c r="G20" s="1">
-        <v>7.505705</v>
+        <v>7.5057049999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>921.336000</v>
+        <v>921.33600000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.764000</v>
+        <v>-166.76400000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>27031.033154</v>
+        <v>27031.033154000001</v>
       </c>
       <c r="L20" s="1">
-        <v>7.508620</v>
+        <v>7.5086199999999996</v>
       </c>
       <c r="M20" s="1">
-        <v>944.135000</v>
+        <v>944.13499999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.710000</v>
+        <v>-119.71</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>27041.574660</v>
+        <v>27041.574659999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.511549</v>
+        <v>7.5115489999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>950.425000</v>
+        <v>950.42499999999995</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.261000</v>
+        <v>-104.261</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>27052.123053</v>
+        <v>27052.123052999999</v>
       </c>
       <c r="V20" s="1">
-        <v>7.514479</v>
+        <v>7.5144789999999997</v>
       </c>
       <c r="W20" s="1">
-        <v>956.901000</v>
+        <v>956.90099999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.266100</v>
+        <v>-90.266099999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>27062.367912</v>
+        <v>27062.367912000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>7.517324</v>
+        <v>7.5173240000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.117000</v>
+        <v>964.11699999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.479800</v>
+        <v>-80.479799999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>27072.503164</v>
+        <v>27072.503164000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.520140</v>
+        <v>7.5201399999999996</v>
       </c>
       <c r="AG20" s="1">
-        <v>968.958000</v>
+        <v>968.95799999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.924000</v>
+        <v>-79.924000000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>27082.723231</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.522979</v>
+        <v>7.5229790000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.763000</v>
+        <v>976.76300000000003</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.517800</v>
+        <v>-87.517799999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>27093.558337</v>
+        <v>27093.558336999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.525988</v>
+        <v>7.5259879999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>985.805000</v>
+        <v>985.80499999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.329000</v>
+        <v>-102.32899999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>27104.263987</v>
+        <v>27104.263986999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.528962</v>
+        <v>7.5289619999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>997.012000</v>
+        <v>997.01199999999994</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.852000</v>
+        <v>-123.852</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>27115.271700</v>
+        <v>27115.271700000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.532020</v>
+        <v>7.5320200000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.598000</v>
+        <v>-142.59800000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>27125.852358</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.534959</v>
+        <v>7.5349589999999997</v>
       </c>
       <c r="BF20" s="1">
-        <v>1051.390000</v>
+        <v>1051.3900000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.736000</v>
+        <v>-227.73599999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>27136.833783</v>
+        <v>27136.833782999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.538009</v>
+        <v>7.5380089999999997</v>
       </c>
       <c r="BK20" s="1">
-        <v>1130.780000</v>
+        <v>1130.78</v>
       </c>
       <c r="BL20" s="1">
-        <v>-364.603000</v>
+        <v>-364.60300000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>27147.329128</v>
+        <v>27147.329128000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.540925</v>
+        <v>7.5409249999999997</v>
       </c>
       <c r="BP20" s="1">
-        <v>1262.860000</v>
+        <v>1262.8599999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.773000</v>
+        <v>-575.77300000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>27157.898875</v>
+        <v>27157.898874999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.543861</v>
+        <v>7.5438609999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>1411.390000</v>
+        <v>1411.39</v>
       </c>
       <c r="BV20" s="1">
-        <v>-801.052000</v>
+        <v>-801.05200000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>27169.358939</v>
+        <v>27169.358939000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.547044</v>
+        <v>7.5470439999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1573.900000</v>
+        <v>1573.9</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1035.340000</v>
+        <v>-1035.3399999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>27182.408186</v>
+        <v>27182.408186000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.550669</v>
+        <v>7.5506690000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1984.370000</v>
+        <v>1984.37</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1583.730000</v>
+        <v>-1583.73</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>27010.444223</v>
+        <v>27010.444222999999</v>
       </c>
       <c r="B21" s="1">
-        <v>7.502901</v>
+        <v>7.5029009999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>904.248000</v>
+        <v>904.24800000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.003000</v>
+        <v>-197.00299999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>27020.888479</v>
+        <v>27020.888479000001</v>
       </c>
       <c r="G21" s="1">
-        <v>7.505802</v>
+        <v>7.5058020000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>921.525000</v>
+        <v>921.52499999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.381000</v>
+        <v>-167.381</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>27031.728547</v>
+        <v>27031.728546999999</v>
       </c>
       <c r="L21" s="1">
         <v>7.508813</v>
       </c>
       <c r="M21" s="1">
-        <v>943.982000</v>
+        <v>943.98199999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.579000</v>
+        <v>-119.57899999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>27042.274485</v>
+        <v>27042.274485000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.511743</v>
+        <v>7.5117430000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>950.405000</v>
+        <v>950.40499999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.226000</v>
+        <v>-104.226</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>27052.465318</v>
+        <v>27052.465317999999</v>
       </c>
       <c r="V21" s="1">
-        <v>7.514574</v>
+        <v>7.5145739999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>956.917000</v>
+        <v>956.91700000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.277300</v>
+        <v>-90.277299999999997</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>27062.714653</v>
+        <v>27062.714652999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.517421</v>
+        <v>7.5174209999999997</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.056000</v>
+        <v>964.05600000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.439900</v>
+        <v>-80.439899999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>27072.845404</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.520235</v>
+        <v>7.5202349999999996</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.973000</v>
+        <v>968.97299999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.936300</v>
+        <v>-79.936300000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>27083.386779</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.523163</v>
+        <v>7.5231630000000003</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.766000</v>
+        <v>976.76599999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.519800</v>
+        <v>-87.519800000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>27093.966575</v>
+        <v>27093.966574999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>7.526102</v>
+        <v>7.5261019999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>985.804000</v>
+        <v>985.80399999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.352000</v>
+        <v>-102.352</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>27104.679137</v>
+        <v>27104.679136999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.529078</v>
+        <v>7.5290780000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>997.010000</v>
+        <v>997.01</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.837000</v>
+        <v>-123.837</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>27115.626338</v>
+        <v>27115.626337999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.532118</v>
+        <v>7.5321179999999996</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.480000</v>
+        <v>1006.48</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.596000</v>
+        <v>-142.596</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>27126.216279</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.535060</v>
+        <v>7.5350599999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1051.380000</v>
+        <v>1051.3800000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.737000</v>
+        <v>-227.73699999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>27137.207767</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.538113</v>
+        <v>7.5381130000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1130.770000</v>
+        <v>1130.77</v>
       </c>
       <c r="BL21" s="1">
-        <v>-364.590000</v>
+        <v>-364.59</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>27147.758664</v>
+        <v>27147.758664000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.541044</v>
+        <v>7.5410440000000003</v>
       </c>
       <c r="BP21" s="1">
-        <v>1262.840000</v>
+        <v>1262.8399999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.715000</v>
+        <v>-575.71500000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>27158.733177</v>
+        <v>27158.733176999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.544093</v>
+        <v>7.5440930000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1411.350000</v>
+        <v>1411.35</v>
       </c>
       <c r="BV21" s="1">
-        <v>-801.166000</v>
+        <v>-801.16600000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>27169.775083</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.547160</v>
+        <v>7.5471599999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1573.690000</v>
+        <v>1573.69</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1035.200000</v>
+        <v>-1035.2</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>27182.948329</v>
+        <v>27182.948328999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.550819</v>
+        <v>7.5508189999999997</v>
       </c>
       <c r="CE21" s="1">
-        <v>1984.490000</v>
+        <v>1984.49</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1581.910000</v>
+        <v>-1581.91</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>27010.784021</v>
+        <v>27010.784020999999</v>
       </c>
       <c r="B22" s="1">
-        <v>7.502996</v>
+        <v>7.5029960000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>904.493000</v>
+        <v>904.49300000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.889000</v>
+        <v>-196.88900000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>27021.580400</v>
+        <v>27021.580399999999</v>
       </c>
       <c r="G22" s="1">
-        <v>7.505995</v>
+        <v>7.5059950000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>921.443000</v>
+        <v>921.44299999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.095000</v>
+        <v>-167.095</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>27032.075745</v>
+        <v>27032.075744999998</v>
       </c>
       <c r="L22" s="1">
-        <v>7.508910</v>
+        <v>7.5089100000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>943.895000</v>
+        <v>943.89499999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.616000</v>
+        <v>-119.616</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>27042.621187</v>
+        <v>27042.621187000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.511839</v>
+        <v>7.5118390000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>950.406000</v>
+        <v>950.40599999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.201000</v>
+        <v>-104.20099999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>27052.810997</v>
       </c>
       <c r="V22" s="1">
-        <v>7.514670</v>
+        <v>7.5146699999999997</v>
       </c>
       <c r="W22" s="1">
-        <v>956.916000</v>
+        <v>956.91600000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.288400</v>
+        <v>-90.288399999999996</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>27063.374824</v>
+        <v>27063.374823999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.517604</v>
+        <v>7.5176040000000004</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.196000</v>
+        <v>964.19600000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.542000</v>
+        <v>-80.542000000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>27073.505083</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.520418</v>
+        <v>7.5204180000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>968.973000</v>
+        <v>968.97299999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.910700</v>
+        <v>-79.910700000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>27083.768301</v>
@@ -5726,1026 +6142,1026 @@
         <v>7.523269</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.746000</v>
+        <v>976.74599999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.524700</v>
+        <v>-87.524699999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>27094.324692</v>
+        <v>27094.324691999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.526201</v>
+        <v>7.5262010000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.775000</v>
+        <v>985.77499999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.357000</v>
+        <v>-102.357</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>27105.040720</v>
+        <v>27105.040720000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.529178</v>
+        <v>7.5291779999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>997.007000</v>
+        <v>997.00699999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.832000</v>
+        <v>-123.83199999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>27115.986434</v>
+        <v>27115.986433999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.532218</v>
+        <v>7.5322180000000003</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.490000</v>
+        <v>1006.49</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.573000</v>
+        <v>-142.57300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>27126.655379</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.535182</v>
+        <v>7.5351819999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1051.390000</v>
+        <v>1051.3900000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.735000</v>
+        <v>-227.73500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>27137.630853</v>
+        <v>27137.630852999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.538231</v>
+        <v>7.5382309999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1130.790000</v>
+        <v>1130.79</v>
       </c>
       <c r="BL22" s="1">
-        <v>-364.577000</v>
+        <v>-364.577</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>27148.147634</v>
+        <v>27148.147634000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.541152</v>
+        <v>7.5411520000000003</v>
       </c>
       <c r="BP22" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.735000</v>
+        <v>-575.73500000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>27159.144329</v>
+        <v>27159.144328999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.544207</v>
+        <v>7.5442070000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1411.180000</v>
+        <v>1411.18</v>
       </c>
       <c r="BV22" s="1">
-        <v>-801.175000</v>
+        <v>-801.17499999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>27170.195693</v>
+        <v>27170.195693000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.547277</v>
+        <v>7.5472770000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1573.770000</v>
+        <v>1573.77</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1035.270000</v>
+        <v>-1035.27</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>27183.488009</v>
+        <v>27183.488009000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.550969</v>
+        <v>7.5509690000000003</v>
       </c>
       <c r="CE22" s="1">
-        <v>1983.220000</v>
+        <v>1983.22</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1583.640000</v>
+        <v>-1583.64</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>27011.491772</v>
+        <v>27011.491772000001</v>
       </c>
       <c r="B23" s="1">
-        <v>7.503192</v>
+        <v>7.5031920000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>904.220000</v>
+        <v>904.22</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.865000</v>
+        <v>-196.86500000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>27021.925614</v>
       </c>
       <c r="G23" s="1">
-        <v>7.506090</v>
+        <v>7.5060900000000004</v>
       </c>
       <c r="H23" s="1">
-        <v>921.290000</v>
+        <v>921.29</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.384000</v>
+        <v>-167.38399999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>27032.420464</v>
+        <v>27032.420463999999</v>
       </c>
       <c r="L23" s="1">
-        <v>7.509006</v>
+        <v>7.5090060000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>943.707000</v>
+        <v>943.70699999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.657000</v>
+        <v>-119.657</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>27042.974339</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.511937</v>
+        <v>7.5119369999999996</v>
       </c>
       <c r="R23" s="1">
-        <v>950.449000</v>
+        <v>950.44899999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.167000</v>
+        <v>-104.167</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>27053.474661</v>
       </c>
       <c r="V23" s="1">
-        <v>7.514854</v>
+        <v>7.5148539999999997</v>
       </c>
       <c r="W23" s="1">
-        <v>956.902000</v>
+        <v>956.90200000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.314400</v>
+        <v>-90.314400000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>27063.761671</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.517712</v>
+        <v>7.5177120000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.058000</v>
+        <v>964.05799999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.492200</v>
+        <v>-80.492199999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>27073.880091</v>
+        <v>27073.880090999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.520522</v>
+        <v>7.5205219999999997</v>
       </c>
       <c r="AG23" s="1">
-        <v>968.949000</v>
+        <v>968.94899999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.933200</v>
+        <v>-79.933199999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>27084.114012</v>
+        <v>27084.114011999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.523365</v>
+        <v>7.5233650000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.747000</v>
+        <v>976.74699999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.509600</v>
+        <v>-87.509600000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>27094.687230</v>
+        <v>27094.68723</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.526302</v>
+        <v>7.5263020000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>985.779000</v>
+        <v>985.779</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.347000</v>
+        <v>-102.34699999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>27105.410240</v>
+        <v>27105.410240000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.529281</v>
+        <v>7.5292810000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>997.014000</v>
+        <v>997.01400000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.834000</v>
+        <v>-123.834</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>27116.412993</v>
+        <v>27116.412993000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.532337</v>
+        <v>7.5323370000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.567000</v>
+        <v>-142.56700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>27126.938596</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.535261</v>
+        <v>7.5352610000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1051.360000</v>
+        <v>1051.3599999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.737000</v>
+        <v>-227.73699999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>27137.985525</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.538329</v>
+        <v>7.5383290000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1130.810000</v>
+        <v>1130.81</v>
       </c>
       <c r="BL23" s="1">
-        <v>-364.593000</v>
+        <v>-364.59300000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>27148.566647</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.541269</v>
+        <v>7.5412689999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1262.850000</v>
+        <v>1262.8499999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.722000</v>
+        <v>-575.72199999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>27159.570920</v>
+        <v>27159.570919999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.544325</v>
+        <v>7.5443249999999997</v>
       </c>
       <c r="BU23" s="1">
-        <v>1411.170000</v>
+        <v>1411.17</v>
       </c>
       <c r="BV23" s="1">
-        <v>-801.148000</v>
+        <v>-801.14800000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>27170.641594</v>
+        <v>27170.641594000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.547400</v>
+        <v>7.5473999999999997</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1573.840000</v>
+        <v>1573.84</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1035.350000</v>
+        <v>-1035.3499999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>27184.027143</v>
+        <v>27184.027142999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.551119</v>
+        <v>7.5511189999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1985.340000</v>
+        <v>1985.34</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1582.810000</v>
+        <v>-1582.81</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>27011.809754</v>
+        <v>27011.809754000002</v>
       </c>
       <c r="B24" s="1">
-        <v>7.503280</v>
+        <v>7.5032800000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>904.393000</v>
+        <v>904.39300000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.881000</v>
+        <v>-196.881</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>27022.270334</v>
+        <v>27022.270334000001</v>
       </c>
       <c r="G24" s="1">
-        <v>7.506186</v>
+        <v>7.5061859999999996</v>
       </c>
       <c r="H24" s="1">
-        <v>921.384000</v>
+        <v>921.38400000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.058000</v>
+        <v>-167.05799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>27033.082624</v>
+        <v>27033.082623999999</v>
       </c>
       <c r="L24" s="1">
-        <v>7.509190</v>
+        <v>7.5091900000000003</v>
       </c>
       <c r="M24" s="1">
-        <v>943.821000</v>
+        <v>943.82100000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.632000</v>
+        <v>-119.63200000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>27043.639475</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.512122</v>
+        <v>7.5121219999999997</v>
       </c>
       <c r="R24" s="1">
-        <v>950.438000</v>
+        <v>950.43799999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.184000</v>
+        <v>-104.184</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>27053.847174</v>
+        <v>27053.847173999999</v>
       </c>
       <c r="V24" s="1">
         <v>7.514958</v>
       </c>
       <c r="W24" s="1">
-        <v>956.919000</v>
+        <v>956.91899999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.229400</v>
+        <v>-90.229399999999998</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>27064.112343</v>
+        <v>27064.112343000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.517809</v>
+        <v>7.5178089999999997</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.130000</v>
+        <v>964.13</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.498000</v>
+        <v>-80.498000000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>27074.226790</v>
+        <v>27074.226790000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.520619</v>
+        <v>7.5206189999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>968.957000</v>
+        <v>968.95699999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.925600</v>
+        <v>-79.925600000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>27084.465179</v>
+        <v>27084.465178999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.523463</v>
+        <v>7.5234629999999996</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.760000</v>
+        <v>976.76</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.538600</v>
+        <v>-87.538600000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>27095.126686</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.526424</v>
+        <v>7.5264239999999996</v>
       </c>
       <c r="AQ24" s="1">
-        <v>985.771000</v>
+        <v>985.77099999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.355000</v>
+        <v>-102.355</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>27105.844736</v>
+        <v>27105.844735999999</v>
       </c>
       <c r="AU24" s="1">
         <v>7.529401</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.996000</v>
+        <v>996.99599999999998</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.844000</v>
+        <v>-123.84399999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>27116.704147</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.532418</v>
+        <v>7.5324179999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.510000</v>
+        <v>1006.51</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.583000</v>
+        <v>-142.583</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>27127.299187</v>
+        <v>27127.299187000001</v>
       </c>
       <c r="BE24" s="1">
         <v>7.535361</v>
       </c>
       <c r="BF24" s="1">
-        <v>1051.410000</v>
+        <v>1051.4100000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.716000</v>
+        <v>-227.71600000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>27138.364436</v>
       </c>
       <c r="BJ24" s="1">
-        <v>7.538435</v>
+        <v>7.5384349999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1130.760000</v>
+        <v>1130.76</v>
       </c>
       <c r="BL24" s="1">
-        <v>-364.618000</v>
+        <v>-364.61799999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>27148.962454</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.541378</v>
+        <v>7.5413779999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.729000</v>
+        <v>-575.72900000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>27159.995960</v>
+        <v>27159.99596</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.544443</v>
+        <v>7.5444430000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1410.990000</v>
+        <v>1410.99</v>
       </c>
       <c r="BV24" s="1">
-        <v>-801.103000</v>
+        <v>-801.10299999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>27171.071129</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.547520</v>
+        <v>7.5475199999999996</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1573.820000</v>
+        <v>1573.82</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1035.330000</v>
+        <v>-1035.33</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>27184.566775</v>
+        <v>27184.566774999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.551269</v>
+        <v>7.5512689999999996</v>
       </c>
       <c r="CE24" s="1">
-        <v>1983.480000</v>
+        <v>1983.48</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1581.950000</v>
+        <v>-1581.95</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>27012.461946</v>
+        <v>27012.461945999999</v>
       </c>
       <c r="B25" s="1">
-        <v>7.503462</v>
+        <v>7.5034619999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>904.343000</v>
+        <v>904.34299999999996</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.897000</v>
+        <v>-196.89699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>27022.927074</v>
+        <v>27022.927073999999</v>
       </c>
       <c r="G25" s="1">
-        <v>7.506369</v>
+        <v>7.5063690000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>921.529000</v>
+        <v>921.529</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.987000</v>
+        <v>-166.98699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>27033.457921</v>
+        <v>27033.457921000001</v>
       </c>
       <c r="L25" s="1">
-        <v>7.509294</v>
+        <v>7.5092939999999997</v>
       </c>
       <c r="M25" s="1">
-        <v>943.739000</v>
+        <v>943.73900000000003</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.699000</v>
+        <v>-119.699</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>27044.022881</v>
+        <v>27044.022881000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.512229</v>
+        <v>7.5122289999999996</v>
       </c>
       <c r="R25" s="1">
-        <v>950.429000</v>
+        <v>950.42899999999997</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.256000</v>
+        <v>-104.256</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>27054.194341</v>
+        <v>27054.194340999999</v>
       </c>
       <c r="V25" s="1">
-        <v>7.515054</v>
+        <v>7.5150540000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>956.940000</v>
+        <v>956.94</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.326100</v>
+        <v>-90.326099999999997</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>27064.458550</v>
+        <v>27064.458549999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.517905</v>
+        <v>7.5179049999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.103000</v>
+        <v>964.10299999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.424200</v>
+        <v>-80.424199999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>27074.571482</v>
+        <v>27074.571481999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.520714</v>
+        <v>7.5207139999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.947000</v>
+        <v>968.947</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.912700</v>
+        <v>-79.912700000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>27084.873915</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.523576</v>
+        <v>7.5235760000000003</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.753000</v>
+        <v>976.75300000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.534200</v>
+        <v>-87.534199999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>27095.407423</v>
+        <v>27095.407423000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.526502</v>
+        <v>7.5265019999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>985.811000</v>
+        <v>985.81100000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.348000</v>
+        <v>-102.348</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>27106.133903</v>
+        <v>27106.133903000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>7.529482</v>
+        <v>7.5294819999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>997.005000</v>
+        <v>997.005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.846000</v>
+        <v>-123.846</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>27117.064736</v>
       </c>
       <c r="AZ25" s="1">
-        <v>7.532518</v>
+        <v>7.5325179999999996</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.490000</v>
+        <v>1006.49</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.594000</v>
+        <v>-142.59399999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>27127.662292</v>
+        <v>27127.662292000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.535462</v>
+        <v>7.5354619999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1051.370000</v>
+        <v>1051.3699999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.709000</v>
+        <v>-227.709</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>27138.739412</v>
+        <v>27138.739411999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>7.538539</v>
+        <v>7.5385390000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1130.770000</v>
+        <v>1130.77</v>
       </c>
       <c r="BL25" s="1">
-        <v>-364.554000</v>
+        <v>-364.55399999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>27149.390502</v>
+        <v>27149.390501999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.541497</v>
+        <v>7.5414969999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1262.820000</v>
+        <v>1262.82</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.745000</v>
+        <v>-575.745</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>27160.399207</v>
+        <v>27160.399206999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.544555</v>
+        <v>7.5445549999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1410.880000</v>
+        <v>1410.88</v>
       </c>
       <c r="BV25" s="1">
-        <v>-801.058000</v>
+        <v>-801.05799999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>27171.487273</v>
+        <v>27171.487272999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.547635</v>
+        <v>7.5476349999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1573.790000</v>
+        <v>1573.79</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1035.340000</v>
+        <v>-1035.3399999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>27185.106918</v>
+        <v>27185.106918000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.551419</v>
+        <v>7.5514190000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1983.650000</v>
+        <v>1983.65</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1583.940000</v>
+        <v>-1583.94</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>27012.831466</v>
       </c>
       <c r="B26" s="1">
-        <v>7.503564</v>
+        <v>7.5035639999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>904.306000</v>
+        <v>904.30600000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.005000</v>
+        <v>-197.005</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>27023.304492</v>
+        <v>27023.304491999999</v>
       </c>
       <c r="G26" s="1">
-        <v>7.506473</v>
+        <v>7.5064729999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>921.344000</v>
+        <v>921.34400000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.093000</v>
+        <v>-167.09299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>27033.800832</v>
+        <v>27033.800832000001</v>
       </c>
       <c r="L26" s="1">
-        <v>7.509389</v>
+        <v>7.5093889999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>943.976000</v>
+        <v>943.976</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.733000</v>
+        <v>-119.733</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>27044.364627</v>
+        <v>27044.364626999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>7.512324</v>
+        <v>7.5123239999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>950.428000</v>
+        <v>950.428</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.225000</v>
+        <v>-104.22499999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>27054.538099</v>
+        <v>27054.538099000001</v>
       </c>
       <c r="V26" s="1">
-        <v>7.515149</v>
+        <v>7.5151490000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>956.899000</v>
+        <v>956.899</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.238500</v>
+        <v>-90.238500000000002</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>27064.881638</v>
+        <v>27064.881637999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.518023</v>
+        <v>7.5180230000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.010000</v>
+        <v>964.01</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.506800</v>
+        <v>-80.506799999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>27074.993080</v>
+        <v>27074.99308</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.520831</v>
+        <v>7.5208310000000003</v>
       </c>
       <c r="AG26" s="1">
-        <v>968.965000</v>
+        <v>968.96500000000003</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.929600</v>
+        <v>-79.929599999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>27085.164042</v>
@@ -6754,150 +7170,151 @@
         <v>7.523657</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.748000</v>
+        <v>976.74800000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.536300</v>
+        <v>-87.536299999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>27095.765532</v>
+        <v>27095.765532000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.526602</v>
+        <v>7.5266019999999996</v>
       </c>
       <c r="AQ26" s="1">
-        <v>985.796000</v>
+        <v>985.79600000000005</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.331000</v>
+        <v>-102.331</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>27106.502927</v>
+        <v>27106.502927000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.529584</v>
+        <v>7.5295839999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>997.002000</v>
+        <v>997.00199999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.862000</v>
+        <v>-123.86199999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>27117.421361</v>
+        <v>27117.421361000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.532617</v>
+        <v>7.5326170000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.599000</v>
+        <v>-142.59899999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>27128.388435</v>
+        <v>27128.388435000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.535663</v>
+        <v>7.5356629999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1051.400000</v>
+        <v>1051.4000000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.719000</v>
+        <v>-227.71899999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>27139.487380</v>
+        <v>27139.487379999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.538746</v>
+        <v>7.5387459999999997</v>
       </c>
       <c r="BK26" s="1">
-        <v>1130.810000</v>
+        <v>1130.81</v>
       </c>
       <c r="BL26" s="1">
-        <v>-364.596000</v>
+        <v>-364.596</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>27149.781845</v>
+        <v>27149.781845000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.541606</v>
+        <v>7.5416059999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1262.820000</v>
+        <v>1262.82</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.713000</v>
+        <v>-575.71299999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>27160.815847</v>
+        <v>27160.815847000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.544671</v>
+        <v>7.5446710000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1410.740000</v>
+        <v>1410.74</v>
       </c>
       <c r="BV26" s="1">
-        <v>-800.953000</v>
+        <v>-800.95299999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>27171.934664</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.547760</v>
+        <v>7.5477600000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1573.850000</v>
+        <v>1573.85</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1035.230000</v>
+        <v>-1035.23</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>27185.961526</v>
+        <v>27185.961525999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.551656</v>
+        <v>7.5516560000000004</v>
       </c>
       <c r="CE26" s="1">
-        <v>1983.270000</v>
+        <v>1983.27</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1582.040000</v>
+        <v>-1582.04</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>